--- a/Data/General data final.xlsx
+++ b/Data/General data final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/PROJEKT/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/Projekt Git/PDV-Slovak-election-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7BEC1452-F84A-4E06-88A0-BC104819A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58614891-92F6-4913-B9D9-7ACFCA16D65A}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{7BEC1452-F84A-4E06-88A0-BC104819A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA1D017-16B1-4949-8F6D-BF980F4A5147}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3DD412B5-D031-4B67-BA45-5A56C78C7728}"/>
+    <workbookView xWindow="0" yWindow="2535" windowWidth="28800" windowHeight="15345" xr2:uid="{3DD412B5-D031-4B67-BA45-5A56C78C7728}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,58 +38,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>Slovenská republika</t>
-  </si>
-  <si>
-    <t>Nezamestnanosť v %</t>
-  </si>
-  <si>
     <t>HDP ( na obyvatela)</t>
   </si>
   <si>
     <t>HDP (mil. Eur.)</t>
   </si>
   <si>
-    <t>Pracovníci pracujúci v zdravotníctve</t>
-  </si>
-  <si>
-    <t>Zdravotnícke zariadenia</t>
-  </si>
-  <si>
     <t>Miera rizika chudoby</t>
   </si>
   <si>
-    <t>Celkový príjem domácností</t>
-  </si>
-  <si>
-    <t>Výdavky na dôchodky</t>
-  </si>
-  <si>
-    <t>Výdavky na dôchodky na obyvatela</t>
-  </si>
-  <si>
-    <t>Celková inflácia v %</t>
-  </si>
-  <si>
-    <t>Cena benzínu 95. okt</t>
-  </si>
-  <si>
     <t>Cena Nafty</t>
   </si>
   <si>
-    <t>Výdavky na výskum a vývoj</t>
-  </si>
-  <si>
     <t>Pocet obyvatelov</t>
   </si>
   <si>
     <t>918.346.05</t>
   </si>
   <si>
-    <t>Pracovníci pracujúci v zdravotníctve (na obyvatela)</t>
-  </si>
-  <si>
     <t>HDP index</t>
+  </si>
+  <si>
+    <t>Slovenska republika</t>
+  </si>
+  <si>
+    <t>Nezamestnanost v %</t>
+  </si>
+  <si>
+    <t>Pracovnici pracujuci v zdravotnictve</t>
+  </si>
+  <si>
+    <t>Pracovnici pracujuci v zdravotnictve (na obyvatela)</t>
+  </si>
+  <si>
+    <t>Zdravotnicke zariadenia</t>
+  </si>
+  <si>
+    <t>Celkovy prijem domacnosti</t>
+  </si>
+  <si>
+    <t>Vydavky na dochodky</t>
+  </si>
+  <si>
+    <t>Vydavky na dochodky na obyvatela</t>
+  </si>
+  <si>
+    <t>Celkova inflacia v %</t>
+  </si>
+  <si>
+    <t>Cena benzinu 95. okt</t>
+  </si>
+  <si>
+    <t>Vydavky na vyskum a vyvoj</t>
   </si>
 </sst>
 </file>
@@ -255,6 +255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3DFCA8-CC94-49D4-B79B-9137F3B179A9}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8">
         <v>2023</v>
@@ -616,7 +620,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>5.08</v>
@@ -663,68 +667,68 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9">
-        <f xml:space="preserve"> B4 * 1000000 / B18</f>
+        <f xml:space="preserve"> B4 * 1000000 / B17</f>
         <v>22659.169091230517</v>
       </c>
       <c r="C3" s="9">
-        <f xml:space="preserve"> C4 * 1000000 / C18</f>
+        <f xml:space="preserve"> C4 * 1000000 / C17</f>
         <v>20278.654993597102</v>
       </c>
       <c r="D3" s="9">
-        <f xml:space="preserve"> D4 * 1000000 / D18</f>
+        <f xml:space="preserve"> D4 * 1000000 / D17</f>
         <v>18760.883741401569</v>
       </c>
       <c r="E3" s="9">
-        <f xml:space="preserve"> E4 * 1000000 / E18</f>
+        <f xml:space="preserve"> E4 * 1000000 / E17</f>
         <v>17275.528084368219</v>
       </c>
       <c r="F3" s="9">
-        <f xml:space="preserve"> F4 * 1000000 / F18</f>
+        <f xml:space="preserve"> F4 * 1000000 / F17</f>
         <v>17323.140351561862</v>
       </c>
       <c r="G3" s="9">
-        <f xml:space="preserve"> G4 * 1000000 / G18</f>
+        <f xml:space="preserve"> G4 * 1000000 / G17</f>
         <v>16563.105859162071</v>
       </c>
       <c r="H3" s="9">
-        <f xml:space="preserve"> H4 * 1000000 / H18</f>
+        <f xml:space="preserve"> H4 * 1000000 / H17</f>
         <v>15608.768500418877</v>
       </c>
       <c r="I3" s="9">
-        <f xml:space="preserve"> I4 * 1000000 / I18</f>
+        <f xml:space="preserve"> I4 * 1000000 / I17</f>
         <v>15016.825985039031</v>
       </c>
       <c r="J3" s="9">
-        <f xml:space="preserve"> J4 * 1000000 / J18</f>
+        <f xml:space="preserve"> J4 * 1000000 / J17</f>
         <v>14812.489357294869</v>
       </c>
       <c r="K3" s="9">
-        <f xml:space="preserve"> K4 * 1000000 / K18</f>
+        <f xml:space="preserve"> K4 * 1000000 / K17</f>
         <v>14122.37064981428</v>
       </c>
       <c r="L3" s="9">
-        <f xml:space="preserve"> L4 * 1000000 / L18</f>
+        <f xml:space="preserve"> L4 * 1000000 / L17</f>
         <v>13782.016780438664</v>
       </c>
       <c r="M3" s="9">
-        <f xml:space="preserve"> M4 * 1000000 / M18</f>
+        <f xml:space="preserve"> M4 * 1000000 / M17</f>
         <v>13541.826069021497</v>
       </c>
       <c r="N3" s="9">
-        <f xml:space="preserve"> N4 * 1000000 / N18</f>
+        <f xml:space="preserve"> N4 * 1000000 / N17</f>
         <v>13254.114022073445</v>
       </c>
       <c r="O3" s="9">
-        <f xml:space="preserve"> O4 * 1000000 / O18</f>
+        <f xml:space="preserve"> O4 * 1000000 / O17</f>
         <v>12668.691272229569</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>122918.9</v>
@@ -771,7 +775,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10">
         <v>111.7</v>
@@ -818,7 +822,7 @@
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>118363</v>
@@ -862,64 +866,64 @@
     </row>
     <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9">
-        <f xml:space="preserve"> C6 * 1000 / C18</f>
+        <f xml:space="preserve"> C6 * 1000 / C17</f>
         <v>21.802824643125028</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ref="D7:O7" si="0" xml:space="preserve"> D6 * 1000 / D18</f>
+        <f xml:space="preserve"> D6 * 1000 / D17</f>
         <v>21.588264474732057</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> E6 * 1000 / E17</f>
         <v>20.931975110356991</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> F6 * 1000 / F17</f>
         <v>20.296551422138258</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> G6 * 1000 / G17</f>
         <v>20.059184418965067</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> H6 * 1000 / H17</f>
         <v>19.791590117432648</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> I6 * 1000 / I17</f>
         <v>19.85063316151345</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> J6 * 1000 / J17</f>
         <v>19.660163221317404</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> K6 * 1000 / K17</f>
         <v>19.438150910409938</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> L6 * 1000 / L17</f>
         <v>19.259967182113421</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> M6 * 1000 / M17</f>
         <v>19.478690538763328</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> N6 * 1000 / N17</f>
         <v>19.566191651792767</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> O6 * 1000 / O17</f>
         <v>19.922487407660014</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>13916</v>
@@ -963,7 +967,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="10">
         <v>14.3</v>
@@ -1010,7 +1014,7 @@
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>1847</v>
@@ -1057,7 +1061,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>10372433</v>
@@ -1104,68 +1108,68 @@
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
-        <f xml:space="preserve"> B11/B18</f>
+        <f xml:space="preserve"> B11/B17</f>
         <v>1.912079535648785</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ref="C12:O12" si="1" xml:space="preserve"> C11/C18</f>
+        <f xml:space="preserve"> C11/C17</f>
         <v>1.4989310697481133</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> D11/D17</f>
         <v>1.4527435860446698</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> E11/E17</f>
         <v>1.4039682177728374</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> F11/F17</f>
         <v>1.3331004587318174</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> G11/G17</f>
         <v>12.800633198793268</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> H11/H17</f>
         <v>1.2305541674627787</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> I11/I17</f>
         <v>1.1832690227645246</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> J11/J17</f>
         <v>1.1729534492684821</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> K11/K17</f>
         <v>1.1431986761966439</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> L11/L17</f>
         <v>1.0814608852483656</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> M11/M17</f>
         <v>1.0369552875008594</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> N11/N17</f>
         <v>0.99306258953482052</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> O11/O17</f>
         <v>0.96318216380871624</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>10.5</v>
@@ -1212,7 +1216,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>1.593</v>
@@ -1259,7 +1263,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4">
         <v>1.5509999999999999</v>
@@ -1304,9 +1308,9 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>1279921.7</v>
@@ -1315,7 +1319,7 @@
         <v>1074995.72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
         <v>838927.29</v>
@@ -1351,53 +1355,50 @@
         <v>416368.75</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
         <v>5424687</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C17" s="12">
         <v>5428792</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D17" s="12">
         <v>5434712</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E17" s="12">
         <v>5459781</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F17" s="12">
         <v>5457873</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G17" s="12">
         <v>5450421</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H17" s="12">
         <v>5443120</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I17" s="12">
         <v>5435343</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J17" s="12">
         <v>5426252</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K17" s="12">
         <v>5421349</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L17" s="12">
         <v>5415949</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M17" s="12">
         <v>5410836</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N17" s="12">
         <v>5404322</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O17" s="12">
         <v>5424925</v>
       </c>
     </row>
